--- a/test_data/only lecturer/Calendar_for_2023.xlsx
+++ b/test_data/only lecturer/Calendar_for_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travkaie\PycharmProjects\LogisticModel\test_data\_data_no_index\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\travkaie\PycharmProjects\LogisticModel\test_data\only lecturer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF96914-80AA-4317-B2F8-0CE4C3BE9D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241F2CED-150C-4C76-843D-9AB14C3E55E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="פנינה יעקב" sheetId="20" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Start</t>
   </si>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92FDE9E-B7A4-4FD2-A01D-2BDAAEB5CEED}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -500,6 +500,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>45205</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0.70833333333333404</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -515,7 +529,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF22FA1B-FB7B-4159-8325-15861C4F63D8}">
           <x14:formula1>
             <xm:f>Slots!$A$2:$A$42</xm:f>
@@ -538,7 +552,13 @@
           <x14:formula1>
             <xm:f>Slots!$F$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B3:B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{571F32EA-6D22-4394-9592-A94414120ADF}">
+          <x14:formula1>
+            <xm:f>Slots!$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -551,7 +571,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1070,7 +1092,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B34" s="3">
-        <v>0.70833333333333304</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C34" s="6" t="str">
         <f t="shared" si="0"/>
